--- a/files/filterByThresholdDatas.xlsx
+++ b/files/filterByThresholdDatas.xlsx
@@ -413,7 +413,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>용역 발주계획목록 번호</v>
+        <v>용역 발주계획목록</v>
       </c>
       <c r="B1" t="str">
         <v>업무</v>
@@ -477,8 +477,8 @@
       <c r="H2" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I2" t="str">
-        <v>530,000,000</v>
+      <c r="I2">
+        <v>530000000</v>
       </c>
       <c r="J2" t="str">
         <v>이경주</v>
@@ -512,8 +512,8 @@
       <c r="H3" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I3" t="str">
-        <v>530,000,000</v>
+      <c r="I3">
+        <v>530000000</v>
       </c>
       <c r="J3" t="str">
         <v>이경주</v>
@@ -547,8 +547,8 @@
       <c r="H4" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I4" t="str">
-        <v>3,224,342,000</v>
+      <c r="I4">
+        <v>3224342000</v>
       </c>
       <c r="K4" t="str">
         <v>0315106730</v>
@@ -582,8 +582,8 @@
       <c r="H5" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I5" t="str">
-        <v>2,088,000,000</v>
+      <c r="I5">
+        <v>2088000000</v>
       </c>
       <c r="K5" t="str">
         <v>0559225799</v>
@@ -617,8 +617,8 @@
       <c r="H6" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I6" t="str">
-        <v>808,901,650</v>
+      <c r="I6">
+        <v>808901650</v>
       </c>
       <c r="J6" t="str">
         <v>김우전</v>
@@ -658,8 +658,8 @@
       <c r="H7" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I7" t="str">
-        <v>806,940,000</v>
+      <c r="I7">
+        <v>806940000</v>
       </c>
       <c r="J7" t="str">
         <v>김길규</v>
@@ -699,8 +699,8 @@
       <c r="H8" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I8" t="str">
-        <v>962,060,000</v>
+      <c r="I8">
+        <v>962060000</v>
       </c>
       <c r="J8" t="str">
         <v>문중배</v>
@@ -740,8 +740,8 @@
       <c r="H9" t="str">
         <v>기술용역</v>
       </c>
-      <c r="I9" t="str">
-        <v>574,300,000</v>
+      <c r="I9">
+        <v>574300000</v>
       </c>
       <c r="J9" t="str">
         <v>김상수</v>
@@ -781,8 +781,8 @@
       <c r="H10" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I10" t="str">
-        <v>630,000,000</v>
+      <c r="I10">
+        <v>630000000</v>
       </c>
       <c r="J10" t="str">
         <v>임재현</v>
@@ -822,8 +822,8 @@
       <c r="H11" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I11" t="str">
-        <v>1,327,941,000</v>
+      <c r="I11">
+        <v>1327941000</v>
       </c>
       <c r="J11" t="str">
         <v>이승연</v>
@@ -863,8 +863,8 @@
       <c r="H12" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I12" t="str">
-        <v>1,000,000,000</v>
+      <c r="I12">
+        <v>1000000000</v>
       </c>
       <c r="J12" t="str">
         <v>우현주</v>
@@ -904,8 +904,8 @@
       <c r="H13" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I13" t="str">
-        <v>3,078,000,000</v>
+      <c r="I13">
+        <v>3078000000</v>
       </c>
       <c r="J13" t="str">
         <v>양상혁</v>
@@ -945,8 +945,8 @@
       <c r="H14" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I14" t="str">
-        <v>1,199,996,000</v>
+      <c r="I14">
+        <v>1199996000</v>
       </c>
       <c r="J14" t="str">
         <v>이병완</v>
@@ -986,8 +986,8 @@
       <c r="H15" t="str">
         <v>기술용역</v>
       </c>
-      <c r="I15" t="str">
-        <v>1,312,000,000</v>
+      <c r="I15">
+        <v>1312000000</v>
       </c>
       <c r="J15" t="str">
         <v>이병주</v>
@@ -1027,8 +1027,8 @@
       <c r="H16" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I16" t="str">
-        <v>599,849,760</v>
+      <c r="I16">
+        <v>599849760</v>
       </c>
       <c r="J16" t="str">
         <v>심용준</v>
@@ -1068,8 +1068,8 @@
       <c r="H17" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I17" t="str">
-        <v>1,115,400,000</v>
+      <c r="I17">
+        <v>1115400000</v>
       </c>
       <c r="J17" t="str">
         <v>전민서</v>
@@ -1109,8 +1109,8 @@
       <c r="H18" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I18" t="str">
-        <v>2,181,000,000</v>
+      <c r="I18">
+        <v>2181000000</v>
       </c>
       <c r="J18" t="str">
         <v>국승용</v>
@@ -1150,8 +1150,8 @@
       <c r="H19" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I19" t="str">
-        <v>1,470,522,000</v>
+      <c r="I19">
+        <v>1470522000</v>
       </c>
       <c r="J19" t="str">
         <v>오준혁</v>
@@ -1191,8 +1191,8 @@
       <c r="H20" t="str">
         <v>기술용역</v>
       </c>
-      <c r="I20" t="str">
-        <v>767,910,000</v>
+      <c r="I20">
+        <v>767910000</v>
       </c>
       <c r="J20" t="str">
         <v>이의준</v>
@@ -1232,8 +1232,8 @@
       <c r="H21" t="str">
         <v>기술용역</v>
       </c>
-      <c r="I21" t="str">
-        <v>1,305,000,000</v>
+      <c r="I21">
+        <v>1305000000</v>
       </c>
       <c r="J21" t="str">
         <v>김제헌</v>
@@ -1273,8 +1273,8 @@
       <c r="H22" t="str">
         <v>기술용역</v>
       </c>
-      <c r="I22" t="str">
-        <v>1,436,644,000</v>
+      <c r="I22">
+        <v>1436644000</v>
       </c>
       <c r="J22" t="str">
         <v>이상락</v>
@@ -1314,8 +1314,8 @@
       <c r="H23" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I23" t="str">
-        <v>600,000,000</v>
+      <c r="I23">
+        <v>600000000</v>
       </c>
       <c r="J23" t="str">
         <v>한홍욱</v>
@@ -1355,8 +1355,8 @@
       <c r="H24" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I24" t="str">
-        <v>8,600,500,000</v>
+      <c r="I24">
+        <v>8600500000</v>
       </c>
       <c r="J24" t="str">
         <v>유상호</v>
@@ -1396,8 +1396,8 @@
       <c r="H25" t="str">
         <v>기술용역</v>
       </c>
-      <c r="I25" t="str">
-        <v>1,184,481,000</v>
+      <c r="I25">
+        <v>1184481000</v>
       </c>
       <c r="J25" t="str">
         <v>과장 김택효</v>
@@ -1437,8 +1437,8 @@
       <c r="H26" t="str">
         <v>기술용역</v>
       </c>
-      <c r="I26" t="str">
-        <v>638,220,000</v>
+      <c r="I26">
+        <v>638220000</v>
       </c>
       <c r="J26" t="str">
         <v>이근행</v>
@@ -1478,8 +1478,8 @@
       <c r="H27" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I27" t="str">
-        <v>2,232,000,000</v>
+      <c r="I27">
+        <v>2232000000</v>
       </c>
       <c r="J27" t="str">
         <v>오아름</v>
@@ -1519,8 +1519,8 @@
       <c r="H28" t="str">
         <v>기술용역</v>
       </c>
-      <c r="I28" t="str">
-        <v>633,600,000</v>
+      <c r="I28">
+        <v>633600000</v>
       </c>
       <c r="J28" t="str">
         <v>오석환</v>
@@ -1560,8 +1560,8 @@
       <c r="H29" t="str">
         <v>기술용역</v>
       </c>
-      <c r="I29" t="str">
-        <v>1,484,603,000</v>
+      <c r="I29">
+        <v>1484603000</v>
       </c>
       <c r="J29" t="str">
         <v>김훈</v>
@@ -1601,8 +1601,8 @@
       <c r="H30" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I30" t="str">
-        <v>1,100,000,000</v>
+      <c r="I30">
+        <v>1100000000</v>
       </c>
       <c r="J30" t="str">
         <v>한민훈</v>
@@ -1642,8 +1642,8 @@
       <c r="H31" t="str">
         <v>기술용역</v>
       </c>
-      <c r="I31" t="str">
-        <v>1,841,962,100</v>
+      <c r="I31">
+        <v>1841962100</v>
       </c>
       <c r="J31" t="str">
         <v>지수연</v>
@@ -1683,8 +1683,8 @@
       <c r="H32" t="str">
         <v>기술용역</v>
       </c>
-      <c r="I32" t="str">
-        <v>1,083,400,000</v>
+      <c r="I32">
+        <v>1083400000</v>
       </c>
       <c r="J32" t="str">
         <v>김동영</v>
@@ -1724,8 +1724,8 @@
       <c r="H33" t="str">
         <v>기술용역</v>
       </c>
-      <c r="I33" t="str">
-        <v>1,311,861,000</v>
+      <c r="I33">
+        <v>1311861000</v>
       </c>
       <c r="J33" t="str">
         <v>차장 이인석</v>
@@ -1765,8 +1765,8 @@
       <c r="H34" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I34" t="str">
-        <v>771,551,000</v>
+      <c r="I34">
+        <v>771551000</v>
       </c>
       <c r="J34" t="str">
         <v>이혜원</v>
@@ -1806,8 +1806,8 @@
       <c r="H35" t="str">
         <v>기술용역</v>
       </c>
-      <c r="I35" t="str">
-        <v>3,191,700,000</v>
+      <c r="I35">
+        <v>3191700000</v>
       </c>
       <c r="J35" t="str">
         <v>김제현</v>
@@ -1847,8 +1847,8 @@
       <c r="H36" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I36" t="str">
-        <v>830,000,000</v>
+      <c r="I36">
+        <v>830000000</v>
       </c>
       <c r="J36" t="str">
         <v>박광현</v>
@@ -1888,8 +1888,8 @@
       <c r="H37" t="str">
         <v>기술용역</v>
       </c>
-      <c r="I37" t="str">
-        <v>765,081,193</v>
+      <c r="I37">
+        <v>765081193</v>
       </c>
       <c r="J37" t="str">
         <v>홍혜선</v>
@@ -1929,8 +1929,8 @@
       <c r="H38" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I38" t="str">
-        <v>1,529,000,000</v>
+      <c r="I38">
+        <v>1529000000</v>
       </c>
       <c r="J38" t="str">
         <v>광성조</v>
@@ -1970,8 +1970,8 @@
       <c r="H39" t="str">
         <v>기술용역</v>
       </c>
-      <c r="I39" t="str">
-        <v>1,392,853,000</v>
+      <c r="I39">
+        <v>1392853000</v>
       </c>
       <c r="J39" t="str">
         <v>최재영</v>
@@ -2011,8 +2011,8 @@
       <c r="H40" t="str">
         <v>기술용역</v>
       </c>
-      <c r="I40" t="str">
-        <v>2,093,300,000</v>
+      <c r="I40">
+        <v>2093300000</v>
       </c>
       <c r="J40" t="str">
         <v>김현수</v>
@@ -2052,8 +2052,8 @@
       <c r="H41" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I41" t="str">
-        <v>780,516,000</v>
+      <c r="I41">
+        <v>780516000</v>
       </c>
       <c r="J41" t="str">
         <v>홍정아</v>
@@ -2093,8 +2093,8 @@
       <c r="H42" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I42" t="str">
-        <v>1,125,465,000</v>
+      <c r="I42">
+        <v>1125465000</v>
       </c>
       <c r="J42" t="str">
         <v>천영은</v>
@@ -2134,8 +2134,8 @@
       <c r="H43" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I43" t="str">
-        <v>2,318,300,000</v>
+      <c r="I43">
+        <v>2318300000</v>
       </c>
       <c r="J43" t="str">
         <v>염수진 대리</v>
@@ -2175,8 +2175,8 @@
       <c r="H44" t="str">
         <v>기술용역</v>
       </c>
-      <c r="I44" t="str">
-        <v>2,502,000,000</v>
+      <c r="I44">
+        <v>2502000000</v>
       </c>
       <c r="J44" t="str">
         <v>정진이</v>
@@ -2216,8 +2216,8 @@
       <c r="H45" t="str">
         <v>기술용역</v>
       </c>
-      <c r="I45" t="str">
-        <v>1,595,920,000</v>
+      <c r="I45">
+        <v>1595920000</v>
       </c>
       <c r="J45" t="str">
         <v>김희창</v>
@@ -2257,8 +2257,8 @@
       <c r="H46" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I46" t="str">
-        <v>910,000,000</v>
+      <c r="I46">
+        <v>910000000</v>
       </c>
       <c r="J46" t="str">
         <v>조성준</v>
@@ -2298,8 +2298,8 @@
       <c r="H47" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I47" t="str">
-        <v>596,103,920</v>
+      <c r="I47">
+        <v>596103920</v>
       </c>
       <c r="J47" t="str">
         <v>손주환</v>
@@ -2339,8 +2339,8 @@
       <c r="H48" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I48" t="str">
-        <v>1,038,956,000</v>
+      <c r="I48">
+        <v>1038956000</v>
       </c>
       <c r="J48" t="str">
         <v>이설은</v>
@@ -2380,8 +2380,8 @@
       <c r="H49" t="str">
         <v>기술용역</v>
       </c>
-      <c r="I49" t="str">
-        <v>4,537,720,000</v>
+      <c r="I49">
+        <v>4537720000</v>
       </c>
       <c r="J49" t="str">
         <v>이해경</v>
@@ -2421,8 +2421,8 @@
       <c r="H50" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I50" t="str">
-        <v>811,114,000</v>
+      <c r="I50">
+        <v>811114000</v>
       </c>
       <c r="J50" t="str">
         <v>박상범</v>
@@ -2462,8 +2462,8 @@
       <c r="H51" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I51" t="str">
-        <v>704,760,000</v>
+      <c r="I51">
+        <v>704760000</v>
       </c>
       <c r="J51" t="str">
         <v>서유경</v>
@@ -2503,8 +2503,8 @@
       <c r="H52" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I52" t="str">
-        <v>973,000,000</v>
+      <c r="I52">
+        <v>973000000</v>
       </c>
       <c r="J52" t="str">
         <v>서영욱</v>
@@ -2544,8 +2544,8 @@
       <c r="H53" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I53" t="str">
-        <v>1,145,000,000</v>
+      <c r="I53">
+        <v>1145000000</v>
       </c>
       <c r="J53" t="str">
         <v>장상연 과장</v>
@@ -2585,8 +2585,8 @@
       <c r="H54" t="str">
         <v>기술용역</v>
       </c>
-      <c r="I54" t="str">
-        <v>2,840,000,000</v>
+      <c r="I54">
+        <v>2840000000</v>
       </c>
       <c r="J54" t="str">
         <v>이문구</v>
@@ -2626,8 +2626,8 @@
       <c r="H55" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I55" t="str">
-        <v>661,109,000</v>
+      <c r="I55">
+        <v>661109000</v>
       </c>
       <c r="K55" t="str">
         <v>0315228948</v>
@@ -2661,8 +2661,8 @@
       <c r="H56" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I56" t="str">
-        <v>650,000,000</v>
+      <c r="I56">
+        <v>650000000</v>
       </c>
       <c r="J56" t="str">
         <v>김현민</v>
@@ -2702,8 +2702,8 @@
       <c r="H57" t="str">
         <v>기술용역</v>
       </c>
-      <c r="I57" t="str">
-        <v>900,000,000</v>
+      <c r="I57">
+        <v>900000000</v>
       </c>
       <c r="J57" t="str">
         <v>인지만</v>
@@ -2743,8 +2743,8 @@
       <c r="H58" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I58" t="str">
-        <v>800,000,000</v>
+      <c r="I58">
+        <v>800000000</v>
       </c>
       <c r="J58" t="str">
         <v>서예은 팀장</v>
@@ -2784,8 +2784,8 @@
       <c r="H59" t="str">
         <v>기술용역</v>
       </c>
-      <c r="I59" t="str">
-        <v>1,263,000,000</v>
+      <c r="I59">
+        <v>1263000000</v>
       </c>
       <c r="J59" t="str">
         <v>신광</v>
@@ -2825,8 +2825,8 @@
       <c r="H60" t="str">
         <v>기술용역</v>
       </c>
-      <c r="I60" t="str">
-        <v>682,900,000</v>
+      <c r="I60">
+        <v>682900000</v>
       </c>
       <c r="J60" t="str">
         <v>김은영</v>
@@ -2866,8 +2866,8 @@
       <c r="H61" t="str">
         <v>기술용역</v>
       </c>
-      <c r="I61" t="str">
-        <v>1,760,390,000</v>
+      <c r="I61">
+        <v>1760390000</v>
       </c>
       <c r="J61" t="str">
         <v>이종환</v>
@@ -2907,8 +2907,8 @@
       <c r="H62" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I62" t="str">
-        <v>680,000,000</v>
+      <c r="I62">
+        <v>680000000</v>
       </c>
       <c r="J62" t="str">
         <v>강종용</v>
@@ -2948,8 +2948,8 @@
       <c r="H63" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I63" t="str">
-        <v>839,127,000</v>
+      <c r="I63">
+        <v>839127000</v>
       </c>
       <c r="J63" t="str">
         <v>강경이</v>
@@ -2989,8 +2989,8 @@
       <c r="H64" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I64" t="str">
-        <v>1,942,551,000</v>
+      <c r="I64">
+        <v>1942551000</v>
       </c>
       <c r="J64" t="str">
         <v>강경이</v>
@@ -3030,8 +3030,8 @@
       <c r="H65" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I65" t="str">
-        <v>1,401,677,000</v>
+      <c r="I65">
+        <v>1401677000</v>
       </c>
       <c r="J65" t="str">
         <v>강경이</v>
@@ -3071,8 +3071,8 @@
       <c r="H66" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I66" t="str">
-        <v>1,803,556,000</v>
+      <c r="I66">
+        <v>1803556000</v>
       </c>
       <c r="J66" t="str">
         <v>강경이</v>
@@ -3112,8 +3112,8 @@
       <c r="H67" t="str">
         <v>기술용역</v>
       </c>
-      <c r="I67" t="str">
-        <v>677,600,000</v>
+      <c r="I67">
+        <v>677600000</v>
       </c>
       <c r="J67" t="str">
         <v>박지윤</v>
@@ -3153,8 +3153,8 @@
       <c r="H68" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I68" t="str">
-        <v>520,000,000</v>
+      <c r="I68">
+        <v>520000000</v>
       </c>
       <c r="J68" t="str">
         <v>한수아</v>
@@ -3194,8 +3194,8 @@
       <c r="H69" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I69" t="str">
-        <v>1,944,000,000</v>
+      <c r="I69">
+        <v>1944000000</v>
       </c>
       <c r="J69" t="str">
         <v>최병욱</v>
@@ -3235,8 +3235,8 @@
       <c r="H70" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I70" t="str">
-        <v>530,000,000</v>
+      <c r="I70">
+        <v>530000000</v>
       </c>
       <c r="J70" t="str">
         <v>허주은</v>
@@ -3276,8 +3276,8 @@
       <c r="H71" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I71" t="str">
-        <v>598,521,000</v>
+      <c r="I71">
+        <v>598521000</v>
       </c>
       <c r="J71" t="str">
         <v>이상철</v>
@@ -3317,8 +3317,8 @@
       <c r="H72" t="str">
         <v>기술용역</v>
       </c>
-      <c r="I72" t="str">
-        <v>2,697,000,000</v>
+      <c r="I72">
+        <v>2697000000</v>
       </c>
       <c r="J72" t="str">
         <v>허치도</v>
@@ -3358,8 +3358,8 @@
       <c r="H73" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I73" t="str">
-        <v>658,030,000</v>
+      <c r="I73">
+        <v>658030000</v>
       </c>
       <c r="J73" t="str">
         <v>정철민</v>
@@ -3399,8 +3399,8 @@
       <c r="H74" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I74" t="str">
-        <v>680,526,000</v>
+      <c r="I74">
+        <v>680526000</v>
       </c>
       <c r="J74" t="str">
         <v>박재오</v>
@@ -3440,8 +3440,8 @@
       <c r="H75" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I75" t="str">
-        <v>959,000,000</v>
+      <c r="I75">
+        <v>959000000</v>
       </c>
       <c r="J75" t="str">
         <v>한미연</v>
@@ -3481,8 +3481,8 @@
       <c r="H76" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I76" t="str">
-        <v>10,131,000,000</v>
+      <c r="I76">
+        <v>10131000000</v>
       </c>
       <c r="J76" t="str">
         <v>임지혜 사무관</v>
@@ -3522,8 +3522,8 @@
       <c r="H77" t="str">
         <v>기술용역</v>
       </c>
-      <c r="I77" t="str">
-        <v>3,432,000,000</v>
+      <c r="I77">
+        <v>3432000000</v>
       </c>
       <c r="J77" t="str">
         <v>곽재영</v>
@@ -3563,8 +3563,8 @@
       <c r="H78" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I78" t="str">
-        <v>1,993,527,000</v>
+      <c r="I78">
+        <v>1993527000</v>
       </c>
       <c r="J78" t="str">
         <v>이선미</v>
@@ -3604,8 +3604,8 @@
       <c r="H79" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I79" t="str">
-        <v>660,000,000</v>
+      <c r="I79">
+        <v>660000000</v>
       </c>
       <c r="J79" t="str">
         <v>배동준</v>
@@ -3645,8 +3645,8 @@
       <c r="H80" t="str">
         <v>기술용역</v>
       </c>
-      <c r="I80" t="str">
-        <v>3,341,674,187</v>
+      <c r="I80">
+        <v>3341674187</v>
       </c>
       <c r="J80" t="str">
         <v>홍혜선</v>
@@ -3686,8 +3686,8 @@
       <c r="H81" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I81" t="str">
-        <v>3,213,520,000</v>
+      <c r="I81">
+        <v>3213520000</v>
       </c>
       <c r="J81" t="str">
         <v>오정은</v>
@@ -3727,8 +3727,8 @@
       <c r="H82" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I82" t="str">
-        <v>699,710,700</v>
+      <c r="I82">
+        <v>699710700</v>
       </c>
       <c r="J82" t="str">
         <v>이도명</v>
@@ -3768,8 +3768,8 @@
       <c r="H83" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I83" t="str">
-        <v>534,551,445</v>
+      <c r="I83">
+        <v>534551445</v>
       </c>
       <c r="J83" t="str">
         <v>신우정</v>
@@ -3809,8 +3809,8 @@
       <c r="H84" t="str">
         <v>기술용역</v>
       </c>
-      <c r="I84" t="str">
-        <v>908,112,000</v>
+      <c r="I84">
+        <v>908112000</v>
       </c>
       <c r="J84" t="str">
         <v>김권중</v>
@@ -3850,8 +3850,8 @@
       <c r="H85" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I85" t="str">
-        <v>7,363,314,504</v>
+      <c r="I85">
+        <v>7363314504</v>
       </c>
       <c r="J85" t="str">
         <v>문세희</v>
@@ -3891,8 +3891,8 @@
       <c r="H86" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I86" t="str">
-        <v>1,000,000,000</v>
+      <c r="I86">
+        <v>1000000000</v>
       </c>
       <c r="J86" t="str">
         <v>허윤구</v>
@@ -3932,8 +3932,8 @@
       <c r="H87" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I87" t="str">
-        <v>1,065,000,000</v>
+      <c r="I87">
+        <v>1065000000</v>
       </c>
       <c r="J87" t="str">
         <v>조은미 팀장</v>
@@ -3973,8 +3973,8 @@
       <c r="H88" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I88" t="str">
-        <v>1,503,891,000</v>
+      <c r="I88">
+        <v>1503891000</v>
       </c>
       <c r="J88" t="str">
         <v>송민주</v>
@@ -4014,8 +4014,8 @@
       <c r="H89" t="str">
         <v>기술용역</v>
       </c>
-      <c r="I89" t="str">
-        <v>1,307,900,000</v>
+      <c r="I89">
+        <v>1307900000</v>
       </c>
       <c r="J89" t="str">
         <v>김승윤</v>
@@ -4055,8 +4055,8 @@
       <c r="H90" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I90" t="str">
-        <v>3,310,000,000</v>
+      <c r="I90">
+        <v>3310000000</v>
       </c>
       <c r="J90" t="str">
         <v>임영준</v>
@@ -4096,8 +4096,8 @@
       <c r="H91" t="str">
         <v>기술용역</v>
       </c>
-      <c r="I91" t="str">
-        <v>2,092,420,000</v>
+      <c r="I91">
+        <v>2092420000</v>
       </c>
       <c r="J91" t="str">
         <v>김승윤</v>
@@ -4137,8 +4137,8 @@
       <c r="H92" t="str">
         <v>일반용역</v>
       </c>
-      <c r="I92" t="str">
-        <v>758,259,000</v>
+      <c r="I92">
+        <v>758259000</v>
       </c>
       <c r="J92" t="str">
         <v>신다희</v>
